--- a/Ecommerce Playground Tests/High-Level tests.xlsx
+++ b/Ecommerce Playground Tests/High-Level tests.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27103"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5749C7B-C671-4095-89D0-BD227E9DA2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C08C1D9-6E01-480D-9CB1-CF867A4B6CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Navigation tests" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="135">
   <si>
     <t>Test Suite ID</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Steps</t>
-  </si>
-  <si>
     <t>Expected Result</t>
   </si>
   <si>
@@ -84,57 +81,39 @@
     <t>https://ecommerce-playground.lambdatest.io/</t>
   </si>
   <si>
-    <t>Click on the Shop by Category button</t>
-  </si>
-  <si>
     <t>Products from selected category are displayed</t>
   </si>
   <si>
-    <t>Select any category</t>
-  </si>
-  <si>
     <t>NAV-01/2</t>
   </si>
   <si>
     <t>Verify that the Mega Menu is working</t>
   </si>
   <si>
-    <t>Click on the Mega Menu button</t>
-  </si>
-  <si>
     <t>NAV-01/3</t>
   </si>
   <si>
+    <t>MED</t>
+  </si>
+  <si>
     <t>Verify that the Top Products carousel is working</t>
   </si>
   <si>
-    <t>Scroll down until the Top Products carousel is visible</t>
-  </si>
-  <si>
     <t>The selected product page is displayed successfully and the product is avaible for purchase</t>
   </si>
   <si>
-    <t>Click on any product displayed in the carousel</t>
-  </si>
-  <si>
     <t>NAV-01/4</t>
   </si>
   <si>
     <t>Verify that the main carousel is working</t>
   </si>
   <si>
-    <t>Click on any product displayed in the main carousel</t>
-  </si>
-  <si>
     <t>NAV-01/5</t>
   </si>
   <si>
     <t>Verify that the Trending carousel is working</t>
   </si>
   <si>
-    <t>Scroll down until the Trending Categories carousel is visible</t>
-  </si>
-  <si>
     <t>NAV-01/6</t>
   </si>
   <si>
@@ -144,15 +123,9 @@
     <t>Verify the search fuction</t>
   </si>
   <si>
-    <t>Type in a product name in the search field at the top of the page</t>
-  </si>
-  <si>
     <t>Products matching the query are displayed</t>
   </si>
   <si>
-    <t>Click the search button</t>
-  </si>
-  <si>
     <t>NAV-01/7</t>
   </si>
   <si>
@@ -162,13 +135,25 @@
     <t>Verify that the back to top button is working</t>
   </si>
   <si>
-    <t>Scroll down until the button to return to top appears or until the bottom of the page is reached</t>
-  </si>
-  <si>
     <t>The page is scrolled back up to the top</t>
   </si>
   <si>
-    <t>Click on the button in the bottom right</t>
+    <t>NAV-01/8</t>
+  </si>
+  <si>
+    <t>Compare two products successfully</t>
+  </si>
+  <si>
+    <t>Both products are displayed correctly in the compare page</t>
+  </si>
+  <si>
+    <t>NAV-01/9</t>
+  </si>
+  <si>
+    <t>Blog links lead to articles</t>
+  </si>
+  <si>
+    <t>Blog article is navigated and displayed correctly</t>
   </si>
   <si>
     <t>CART-01</t>
@@ -183,36 +168,18 @@
     <t>Add a product to the cart</t>
   </si>
   <si>
-    <t>Select any product displayed on the main page</t>
-  </si>
-  <si>
     <t>The selected product is added to the cart and is visible when clicking on the cart button</t>
   </si>
   <si>
-    <t>Hover over the product and click the add to cart button</t>
-  </si>
-  <si>
     <t>CART-01/2</t>
   </si>
   <si>
-    <t>MED</t>
-  </si>
-  <si>
     <t>Remove a product from the cart</t>
   </si>
   <si>
-    <t>Click on the cart button</t>
-  </si>
-  <si>
     <t>The product is successfully removed from the cart and is no longer displayed in the cart</t>
   </si>
   <si>
-    <t>Click on the edit cart button</t>
-  </si>
-  <si>
-    <t>Click on the remove button next to the item</t>
-  </si>
-  <si>
     <t>a product is already added to the cart</t>
   </si>
   <si>
@@ -225,9 +192,6 @@
     <t>The checkout screen is displayed successfully</t>
   </si>
   <si>
-    <t>Click on the checkout button</t>
-  </si>
-  <si>
     <t>CART-01/4</t>
   </si>
   <si>
@@ -237,7 +201,77 @@
     <t>The product quantity is successfully modified to the new value</t>
   </si>
   <si>
-    <t>Click on the quantity field and change the value to another positive number</t>
+    <t>CART-01/5</t>
+  </si>
+  <si>
+    <t>Checkout button from cart quick view leads to checkout page</t>
+  </si>
+  <si>
+    <t>Checkout page is displayed with correct values</t>
+  </si>
+  <si>
+    <t>CART-01/6</t>
+  </si>
+  <si>
+    <t>Checkout button from cart quick view with no products leads to empty cart message</t>
+  </si>
+  <si>
+    <t>Empty shopping cart message is displayed</t>
+  </si>
+  <si>
+    <t>Cart is empty</t>
+  </si>
+  <si>
+    <t>CART-01/7</t>
+  </si>
+  <si>
+    <t>Shipping and taxes estimate menu calculates shipping pricing</t>
+  </si>
+  <si>
+    <t>Shipping and taxes estimate is calculated correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a product is already added to the cart
+</t>
+  </si>
+  <si>
+    <t>CART-01/8</t>
+  </si>
+  <si>
+    <t>Gift certificate codes apply to order</t>
+  </si>
+  <si>
+    <t>Entering a gift code applies it to the order successfully</t>
+  </si>
+  <si>
+    <t>CART-01/9</t>
+  </si>
+  <si>
+    <t>Coupon codes apply correctly to order</t>
+  </si>
+  <si>
+    <t>Entering a coupon code applies it to the order successfully</t>
+  </si>
+  <si>
+    <t>CART-01/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart contents are retained after closing the site </t>
+  </si>
+  <si>
+    <t>Cart items are retained in the cart after leaving the site and reloading it</t>
+  </si>
+  <si>
+    <t>CART-01/11</t>
+  </si>
+  <si>
+    <t>Wishlist saves and displays wishlisted items correctly</t>
+  </si>
+  <si>
+    <t>Clicking on the wishlist button adds the item to the wishlist</t>
+  </si>
+  <si>
+    <t>Existing user is logged in</t>
   </si>
   <si>
     <t>ORD-01</t>
@@ -252,36 +286,63 @@
     <t>Verify that required fields for Guest Checkout accept only valid data</t>
   </si>
   <si>
-    <t>Fill in required fields</t>
-  </si>
-  <si>
     <t>Order confirmation screen appears</t>
   </si>
   <si>
-    <t>Accept terms and conditions</t>
-  </si>
-  <si>
     <t>Checkout page navigated</t>
   </si>
   <si>
-    <t>Click continue</t>
-  </si>
-  <si>
     <t>ORD-01/2</t>
   </si>
   <si>
     <t>Verify that confirming the order places it</t>
   </si>
   <si>
-    <t>Confirm the order</t>
-  </si>
-  <si>
     <t>Order has been placed screen appears</t>
   </si>
   <si>
     <t>Order information filled out</t>
   </si>
   <si>
+    <t>ORD-01/4</t>
+  </si>
+  <si>
+    <t>Register an account at checkout</t>
+  </si>
+  <si>
+    <t>Account is created and order is linked to the new account</t>
+  </si>
+  <si>
+    <t>ORD-01/5</t>
+  </si>
+  <si>
+    <t>Login at checkout</t>
+  </si>
+  <si>
+    <t>User is logged in and order is placed under his account</t>
+  </si>
+  <si>
+    <t>Registered account</t>
+  </si>
+  <si>
+    <t>ORD-01/6</t>
+  </si>
+  <si>
+    <t>Subscribe to newsletter</t>
+  </si>
+  <si>
+    <t>User is logged in and subscription to newsletter is added</t>
+  </si>
+  <si>
+    <t>ORD-01/7</t>
+  </si>
+  <si>
+    <t>Add a comment to the order</t>
+  </si>
+  <si>
+    <t>Comment is sucesssfully added to order and is visible to staff</t>
+  </si>
+  <si>
     <t>ACC-01</t>
   </si>
   <si>
@@ -300,40 +361,85 @@
     <t>https://ecommerce-playground.lambdatest.io/index.php?route=account/login</t>
   </si>
   <si>
-    <t>Click the register button</t>
-  </si>
-  <si>
     <t>Account successfully created page is displayed</t>
   </si>
   <si>
-    <t>Fill in the required fields with valid data</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Accept the Privacy Policy</t>
-  </si>
-  <si>
-    <t>Click Continue</t>
-  </si>
-  <si>
     <t>ACC-01/2</t>
   </si>
   <si>
     <t>Login as an existing user</t>
   </si>
   <si>
-    <t>Registered account</t>
-  </si>
-  <si>
-    <t>Fill in the account and password</t>
-  </si>
-  <si>
     <t>Successfully logged in into account</t>
   </si>
   <si>
-    <t>Click on Login</t>
-  </si>
-  <si>
     <t>Login page navigated</t>
+  </si>
+  <si>
+    <t>ACC-01/3</t>
+  </si>
+  <si>
+    <t>Edit account information</t>
+  </si>
+  <si>
+    <t>Account information edited successfully</t>
+  </si>
+  <si>
+    <t>Logged into account</t>
+  </si>
+  <si>
+    <t>ACC-01/4</t>
+  </si>
+  <si>
+    <t>Change account password</t>
+  </si>
+  <si>
+    <t>Password changed</t>
+  </si>
+  <si>
+    <t>ACC-01/5</t>
+  </si>
+  <si>
+    <t>Modify adressbook</t>
+  </si>
+  <si>
+    <t>Adresses updated</t>
+  </si>
+  <si>
+    <t>ACC-01/6</t>
+  </si>
+  <si>
+    <t>View order history</t>
+  </si>
+  <si>
+    <t>Order history and details are accessible</t>
+  </si>
+  <si>
+    <t>ACC-01/7</t>
+  </si>
+  <si>
+    <t>View return requests</t>
+  </si>
+  <si>
+    <t>Return requests and details are accessible</t>
+  </si>
+  <si>
+    <t>ACC-01/8</t>
+  </si>
+  <si>
+    <t>Set up or modify recurring payments</t>
+  </si>
+  <si>
+    <t>Recurring payments menu is functional</t>
+  </si>
+  <si>
+    <t>ACC-01/9</t>
+  </si>
+  <si>
+    <t>Register for an affiliate account</t>
+  </si>
+  <si>
+    <t>Affiliate registration is functional</t>
   </si>
 </sst>
 </file>
@@ -484,7 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -534,12 +640,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -555,9 +676,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -591,24 +709,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -925,11 +1060,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:I5"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -940,11 +1075,10 @@
     <col min="5" max="5" width="14.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1">
+    <row r="1" spans="1:8" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -969,427 +1103,483 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="F2" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="G2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="E3" s="23"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="26"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="E4" s="23"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="29"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="E5" s="24"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:8" ht="26.25" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="17" t="s">
+      <c r="E10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="H10" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="26"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="26"/>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="26.25" customHeight="1">
+    </row>
+    <row r="11" spans="1:8" ht="26.25" customHeight="1">
       <c r="A11" s="6"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="28"/>
-    </row>
-    <row r="12" spans="1:9" ht="26.25" customHeight="1">
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8" ht="26.25" customHeight="1">
       <c r="A12" s="6"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="28"/>
-    </row>
-    <row r="13" spans="1:9" ht="26.25" customHeight="1">
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:8" ht="26.25" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="29"/>
-    </row>
-    <row r="14" spans="1:9" ht="26.25" customHeight="1">
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:8" ht="26.25" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="17" t="s">
+      <c r="E14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="17" t="s">
+      <c r="H14" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="26.25" customHeight="1">
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8" ht="26.25" customHeight="1">
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:8" ht="26.25" customHeight="1">
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:8" ht="26.25" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="26.25" customHeight="1">
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" ht="26.25" customHeight="1">
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="21"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" ht="26.25" customHeight="1">
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="21"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="26.25" customHeight="1">
+      <c r="H18" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="26.25" customHeight="1">
       <c r="A19" s="6"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="28"/>
-    </row>
-    <row r="20" spans="1:9" ht="26.25" customHeight="1">
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="1:8" ht="26.25" customHeight="1">
       <c r="A20" s="6"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="28"/>
-    </row>
-    <row r="21" spans="1:9" ht="26.25" customHeight="1">
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="1:8" ht="26.25" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="29"/>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="33"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="42"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="18"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="22"/>
-      <c r="I25" s="19"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="6"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="28"/>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="6"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="28"/>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="32"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" s="29"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="33"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="E31" s="23"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="E32" s="23"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="E33" s="23"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="6"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="32"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="6"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="32"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="F2:F5"/>
-    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="H2:H5"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="F6:F9"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="G6:G9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="H10:H13"/>
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="F14:F17"/>
     <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H15"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
     <mergeCell ref="E18:E21"/>
     <mergeCell ref="F18:F21"/>
     <mergeCell ref="G18:G21"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
     <mergeCell ref="E26:E29"/>
     <mergeCell ref="F26:F29"/>
     <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="H26:H29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{987FDC35-06E7-4C36-989E-CB83897AFB3F}"/>
@@ -1407,11 +1597,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8C18B5-43F4-48ED-8D50-B584D4698F8C}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" activeCellId="3" sqref="B2 B7 B12 B17"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1423,12 +1613,11 @@
     <col min="5" max="5" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="50.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="8" width="19" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1453,277 +1642,680 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="H2" s="37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="11"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="34"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="F3" s="23"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="38"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="11"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="26"/>
-      <c r="I4" s="34"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="F4" s="23"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="11"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="26"/>
-      <c r="I5" s="34"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="F5" s="23"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1">
+      <c r="F6" s="24"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="39"/>
+    </row>
+    <row r="7" spans="1:8" ht="24" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>52</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="17" t="s">
+    </row>
+    <row r="8" spans="1:8" ht="24" customHeight="1">
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" ht="24" customHeight="1">
+      <c r="F9" s="23"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:8" ht="28.5" customHeight="1">
+      <c r="F10" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="23"/>
+    </row>
+    <row r="11" spans="1:8" ht="28.5" customHeight="1">
+      <c r="F11" s="23"/>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:8" ht="23.25" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1">
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" ht="24" customHeight="1">
-      <c r="F9" s="18"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="18"/>
-    </row>
-    <row r="10" spans="1:9" ht="28.5" customHeight="1">
-      <c r="F10" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="18"/>
-    </row>
-    <row r="11" spans="1:9" ht="28.5" customHeight="1">
-      <c r="F11" s="18"/>
-      <c r="I11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="23.25" customHeight="1">
+      <c r="H12" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="23.25" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="28"/>
-    </row>
-    <row r="14" spans="1:9" ht="23.25" customHeight="1">
+      <c r="F13" s="23"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="32"/>
+    </row>
+    <row r="14" spans="1:8" ht="23.25" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="28"/>
-    </row>
-    <row r="15" spans="1:9" ht="23.25" customHeight="1">
+      <c r="F14" s="23"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="32"/>
+    </row>
+    <row r="15" spans="1:8" ht="23.25" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="18" t="s">
-        <v>59</v>
+      <c r="F15" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="28"/>
-    </row>
-    <row r="16" spans="1:9" ht="23.25" customHeight="1">
+      <c r="H15" s="32"/>
+    </row>
+    <row r="16" spans="1:8" ht="23.25" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="19"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="29"/>
-    </row>
-    <row r="17" spans="1:9" ht="24.75" customHeight="1">
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" spans="1:10" ht="24.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="24.75" customHeight="1">
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="1:10" ht="24.75" customHeight="1">
+      <c r="F19" s="23"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="1:10" ht="24.75" customHeight="1">
+      <c r="F20" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="1:10" ht="24.75" customHeight="1">
+      <c r="F21" s="23"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="1:10" ht="32.25" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="32.25" customHeight="1">
+      <c r="A23" s="11"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="32"/>
+    </row>
+    <row r="24" spans="1:10" ht="32.25" customHeight="1">
+      <c r="A24" s="11"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="46"/>
+      <c r="H24" s="48"/>
+    </row>
+    <row r="25" spans="1:10" ht="32.25" customHeight="1">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="49"/>
+    </row>
+    <row r="26" spans="1:10" ht="29.25" customHeight="1">
+      <c r="A26" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="29.25" customHeight="1">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+    </row>
+    <row r="28" spans="1:10" ht="29.25" customHeight="1">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+    </row>
+    <row r="29" spans="1:10" ht="29.25" customHeight="1">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+    </row>
+    <row r="30" spans="1:10" ht="32.25" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="2" t="s">
+    </row>
+    <row r="31" spans="1:10" ht="32.25" customHeight="1">
+      <c r="A31" s="11"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="32"/>
+    </row>
+    <row r="32" spans="1:10" ht="32.25" customHeight="1">
+      <c r="A32" s="11"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="46"/>
+      <c r="H32" s="48"/>
+      <c r="J32" s="46"/>
+    </row>
+    <row r="33" spans="1:8" ht="32.25" customHeight="1">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="49"/>
+    </row>
+    <row r="34" spans="1:8" ht="32.25" customHeight="1">
+      <c r="A34" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="17" t="s">
+      <c r="B34" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="32.25" customHeight="1">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+    </row>
+    <row r="36" spans="1:8" ht="32.25" customHeight="1">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+    </row>
+    <row r="37" spans="1:8" ht="32.25" customHeight="1">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+    </row>
+    <row r="38" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="24.75" customHeight="1">
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="1:9" ht="24.75" customHeight="1">
-      <c r="F19" s="18"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="18"/>
-    </row>
-    <row r="20" spans="1:9" ht="24.75" customHeight="1">
-      <c r="F20" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="1:9" ht="24.75" customHeight="1">
-      <c r="F21" s="18"/>
-      <c r="I21" s="18"/>
+      <c r="H38" s="31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A39" s="11"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="32"/>
+    </row>
+    <row r="40" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A40" s="11"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="46"/>
+      <c r="H40" s="48"/>
+    </row>
+    <row r="41" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="49"/>
+    </row>
+    <row r="42" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A42" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+    </row>
+    <row r="44" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+    </row>
+    <row r="45" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+    </row>
+    <row r="46" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A46" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A47" s="11"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="32"/>
+    </row>
+    <row r="48" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A48" s="11"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="46"/>
+      <c r="H48" s="48"/>
+    </row>
+    <row r="49" spans="1:8" ht="27.75" customHeight="1">
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="52">
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G22:G23"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F19"/>
     <mergeCell ref="G17:G19"/>
-    <mergeCell ref="I17:I21"/>
+    <mergeCell ref="H17:H21"/>
     <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H19:H20"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G7:G9"/>
-    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="H7:H11"/>
     <mergeCell ref="F12:F14"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G12:G14"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="H2:H6"/>
     <mergeCell ref="G2:G6"/>
     <mergeCell ref="F2:F6"/>
     <mergeCell ref="E7:E8"/>
@@ -1742,10 +2334,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2658B4-CE93-482B-B350-725DA538A05A}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1757,11 +2349,10 @@
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1786,153 +2377,386 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="34.5" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="34.5" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="34.5" customHeight="1">
+      <c r="H2" s="31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="34.5" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" ht="34.5" customHeight="1">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:8" ht="34.5" customHeight="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" ht="34.5" customHeight="1">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="30"/>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="1:8" ht="34.5" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="29"/>
-    </row>
-    <row r="6" spans="1:9" ht="44.25" customHeight="1">
-      <c r="A6" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="31" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="1:8" ht="44.25" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="44.25" customHeight="1">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:8" ht="44.25" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" ht="44.25" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="44.25" customHeight="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" ht="44.25" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:9" ht="44.25" customHeight="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="14" t="s">
+      <c r="B10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="39"/>
+      <c r="E10" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8" ht="30.75">
+      <c r="A12" s="6"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:8" ht="45.75">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8" ht="30.75">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:8" ht="30.75">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="6"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="1:8" ht="30.75">
+      <c r="A20" s="6"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="33"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="1:8" ht="30.75">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="25">
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G9"/>
-    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="H6:H9"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="G2:G5"/>
-    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="H2:H5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F2:F3"/>
   </mergeCells>
@@ -1941,6 +2765,14 @@
     <hyperlink ref="G2:G5" r:id="rId2" display="https://ecommerce-playground.lambdatest.io/" xr:uid="{0A382DBA-0DFE-4950-9679-5FD40AAE8BAC}"/>
     <hyperlink ref="G6" r:id="rId3" xr:uid="{CBCD3BD4-CAA9-4716-82BE-0892B8BFCC7E}"/>
     <hyperlink ref="G6:G9" r:id="rId4" display="https://ecommerce-playground.lambdatest.io/" xr:uid="{E5B537AC-1A63-499B-9311-1C64DD90810A}"/>
+    <hyperlink ref="G10" r:id="rId5" xr:uid="{52C49554-258C-491F-9EF0-63E082854274}"/>
+    <hyperlink ref="G10:G13" r:id="rId6" display="https://ecommerce-playground.lambdatest.io/" xr:uid="{86CCDD84-3CDC-4DF9-8E23-C5A4EDDB64CB}"/>
+    <hyperlink ref="G14" r:id="rId7" xr:uid="{41D892FA-D968-4617-8C30-221AC743D16A}"/>
+    <hyperlink ref="G14:G17" r:id="rId8" display="https://ecommerce-playground.lambdatest.io/" xr:uid="{27015DCB-3C27-400B-8191-586A07BA49D5}"/>
+    <hyperlink ref="G18" r:id="rId9" xr:uid="{B7581480-BD27-4C85-B9C2-D3FB9F75C172}"/>
+    <hyperlink ref="G18:G21" r:id="rId10" display="https://ecommerce-playground.lambdatest.io/" xr:uid="{EB1B264F-2145-4285-8E08-339A35324C5E}"/>
+    <hyperlink ref="G22" r:id="rId11" xr:uid="{1FF28C9C-CAAB-4030-81FF-80DB4B0CB117}"/>
+    <hyperlink ref="G22:G25" r:id="rId12" display="https://ecommerce-playground.lambdatest.io/" xr:uid="{BDBE0BE1-088D-4894-BFF9-76CCDD60F264}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1948,10 +2780,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A803BE-EC42-4190-B452-A18A12E93B19}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H38" sqref="A38:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1962,11 +2794,10 @@
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1991,153 +2822,611 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="22.5" customHeight="1">
+    </row>
+    <row r="2" spans="1:8" ht="22.5" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>83</v>
+        <v>102</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="22.5" customHeight="1">
+        <v>104</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="22.5" customHeight="1">
       <c r="A3" s="6"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="28"/>
-    </row>
-    <row r="4" spans="1:9" ht="22.5" customHeight="1">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:8" ht="22.5" customHeight="1">
       <c r="A4" s="6"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="1:9" ht="22.5" customHeight="1">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="1:8" ht="22.5" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" s="29"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="30" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="G6" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="39"/>
+      <c r="G6" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:8" ht="21" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="23"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="6"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="32"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="32"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="33"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="6"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="32"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="6"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="32"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="33"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="23"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="6"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="32"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="6"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="30"/>
+      <c r="H36" s="32"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="33"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="44"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="44"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="44"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="44">
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="F2:F5"/>
     <mergeCell ref="G2:G5"/>
-    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="H2:H5"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="G6:G9"/>
-    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="H6:H9"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F8:F9"/>
   </mergeCells>
@@ -2146,6 +3435,20 @@
     <hyperlink ref="G2:G5" r:id="rId2" display="https://ecommerce-playground.lambdatest.io/index.php?route=account/login" xr:uid="{8EB4A04B-E77B-4725-B1FD-C814F1B11949}"/>
     <hyperlink ref="G6" r:id="rId3" xr:uid="{2BBE05D7-F3D5-408C-BACD-BC3A06DB2C94}"/>
     <hyperlink ref="G6:G9" r:id="rId4" display="https://ecommerce-playground.lambdatest.io/index.php?route=account/login" xr:uid="{36C0C7AD-F37C-4B5E-8CB3-AFCB300955A3}"/>
+    <hyperlink ref="G10" r:id="rId5" xr:uid="{70D3A925-E86A-43E0-B783-7BCBFCB656FF}"/>
+    <hyperlink ref="G10:G13" r:id="rId6" display="https://ecommerce-playground.lambdatest.io/index.php?route=account/login" xr:uid="{42B8A475-FBF2-4BF9-B9B4-D26DE639B45C}"/>
+    <hyperlink ref="G14" r:id="rId7" xr:uid="{621083AB-A2FD-440F-A13A-E64EC0FD54E7}"/>
+    <hyperlink ref="G14:G17" r:id="rId8" display="https://ecommerce-playground.lambdatest.io/index.php?route=account/login" xr:uid="{24D0EDF0-8592-47B5-9D95-094CC6F93C43}"/>
+    <hyperlink ref="G18" r:id="rId9" xr:uid="{B9A1DFFF-F149-4B75-93B9-F622108C6C73}"/>
+    <hyperlink ref="G18:G21" r:id="rId10" display="https://ecommerce-playground.lambdatest.io/index.php?route=account/login" xr:uid="{0C1C309B-E2BB-44F3-A616-810EFAE7128F}"/>
+    <hyperlink ref="G22" r:id="rId11" xr:uid="{A6747A91-CA87-466C-B119-6A1C5E6B185A}"/>
+    <hyperlink ref="G22:G25" r:id="rId12" display="https://ecommerce-playground.lambdatest.io/index.php?route=account/login" xr:uid="{BDC0FDF5-125F-4E18-BE6C-A01779D854D2}"/>
+    <hyperlink ref="G26" r:id="rId13" xr:uid="{3BC74BAA-B622-4DA2-BD2C-DFFB910CD4D5}"/>
+    <hyperlink ref="G26:G29" r:id="rId14" display="https://ecommerce-playground.lambdatest.io/index.php?route=account/login" xr:uid="{DBC6E74E-7F8D-4711-9C3F-77CAF9F59AEE}"/>
+    <hyperlink ref="G30" r:id="rId15" xr:uid="{6A6BF731-8B88-4616-BF24-E5DE989043C0}"/>
+    <hyperlink ref="G30:G33" r:id="rId16" display="https://ecommerce-playground.lambdatest.io/index.php?route=account/login" xr:uid="{45B7425F-E20C-4978-9A63-28EDEAE17BA0}"/>
+    <hyperlink ref="G34" r:id="rId17" xr:uid="{832E8ABA-5B49-4239-B46E-1D2B797D8DF8}"/>
+    <hyperlink ref="G34:G37" r:id="rId18" display="https://ecommerce-playground.lambdatest.io/index.php?route=account/login" xr:uid="{FCE16DB5-1368-4F0B-B2E0-9B1BF97AA449}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
